--- a/data/trans_dic/P16A05-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Dificultad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A05-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03238748243744793</v>
+        <v>0.03451441572429378</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02502161763196526</v>
+        <v>0.02525795423065767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03466286923357679</v>
+        <v>0.03424162458924555</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.086537274893262</v>
+        <v>0.08747570903961467</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06546548717768891</v>
+        <v>0.06620694765957791</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08954237536473653</v>
+        <v>0.08875981869345428</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1083252333349577</v>
+        <v>0.106733319718883</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1266528816871648</v>
+        <v>0.1245257476873844</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05750592496453093</v>
+        <v>0.05750458103556709</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06254044358768486</v>
+        <v>0.06246624502348704</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07504983553927798</v>
+        <v>0.07531909877813145</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1154811803479476</v>
+        <v>0.1141776226373212</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06703694991525021</v>
+        <v>0.06995805929606726</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05081306506106223</v>
+        <v>0.0510706223232764</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05965334759326362</v>
+        <v>0.05955632096879483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1443314117577484</v>
+        <v>0.1446426067419464</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1022765402483769</v>
+        <v>0.1023711447571096</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1271640992419804</v>
+        <v>0.127119908152821</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.145662859294388</v>
+        <v>0.145297548780763</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1714999330619346</v>
+        <v>0.1708660664230757</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08269664251318989</v>
+        <v>0.08289502498726976</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0864705777290788</v>
+        <v>0.08656433538842428</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09949861301012619</v>
+        <v>0.0999673609063907</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1520363436327104</v>
+        <v>0.1520046428189439</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03673890913042065</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04224645873447554</v>
+        <v>0.04224645873447553</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.05072511670563166</v>
@@ -833,7 +833,7 @@
         <v>0.04781191161038603</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.07179312728542339</v>
+        <v>0.07179312728542338</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01289265507216198</v>
+        <v>0.01229501199645378</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02332522124636239</v>
+        <v>0.02363822428872713</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02580843931568539</v>
+        <v>0.02591969985440782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03071050742166152</v>
+        <v>0.03071075332122264</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03872770776764815</v>
+        <v>0.03768623828168759</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04511074974311743</v>
+        <v>0.04402812848569129</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04327824098417171</v>
+        <v>0.04161373318884478</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08404827772481362</v>
+        <v>0.08354195670443884</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02808855917466471</v>
+        <v>0.02764201126372343</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03776947182307582</v>
+        <v>0.03764476005300924</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03844000305936366</v>
+        <v>0.03700682223926598</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06269435311209128</v>
+        <v>0.06165577125700404</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0301843314634498</v>
+        <v>0.03022259843668774</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04919674830321068</v>
+        <v>0.0502858193704407</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04996053371863188</v>
+        <v>0.0513647050225079</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05705131777717336</v>
+        <v>0.05627285019456925</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06688161578543324</v>
+        <v>0.06564399612427152</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07365107496191159</v>
+        <v>0.07412248833124412</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07446582450389967</v>
+        <v>0.07410420324204796</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1121274658709235</v>
+        <v>0.1122458816096339</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04479127950916243</v>
+        <v>0.04419792758029748</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05778793094819929</v>
+        <v>0.05840848585571953</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.058130919518877</v>
+        <v>0.05794796046496177</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0821488014644656</v>
+        <v>0.08185043272069246</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03644126808691684</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0431807636104833</v>
+        <v>0.04318076361048331</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01457097502376783</v>
+        <v>0.01477464758252196</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01727979056571325</v>
+        <v>0.01830350582192423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01659397471905119</v>
+        <v>0.01716670014682834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01679989399515621</v>
+        <v>0.01663882905533419</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02248518052577654</v>
+        <v>0.02243217900712334</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03028807884602705</v>
+        <v>0.03024584284044289</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03237920731955569</v>
+        <v>0.03319540219130565</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05190122489082065</v>
+        <v>0.05019757203603044</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02050963768710043</v>
+        <v>0.02102779680615782</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02670796808415833</v>
+        <v>0.02686923206688167</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02773038173903468</v>
+        <v>0.02792461444098386</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.036103088948647</v>
+        <v>0.03523109409468739</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0318816216927055</v>
+        <v>0.0312126740172303</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04159250225419537</v>
+        <v>0.04199021627317144</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04022754343225505</v>
+        <v>0.04064125099955475</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03514165818456155</v>
+        <v>0.03380711691750285</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04459729405863861</v>
+        <v>0.04437247857200773</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05770467412395937</v>
+        <v>0.05883099310196829</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06311622097752984</v>
+        <v>0.06566144091282579</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07628369145718425</v>
+        <v>0.07705163349781077</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03432302827185277</v>
+        <v>0.034077385761106</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04619865129793271</v>
+        <v>0.04571302725286858</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04669592544213263</v>
+        <v>0.0470077992074864</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05164397339382504</v>
+        <v>0.05136981980693257</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.0201152446527703</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02548560822693084</v>
+        <v>0.02548560822693085</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04173900484385326</v>
@@ -1105,7 +1105,7 @@
         <v>0.02852111255864987</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0376573223723479</v>
+        <v>0.03765732237234788</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008334960787051149</v>
+        <v>0.008488245156186305</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01854384613269864</v>
+        <v>0.01961017500476659</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009587821483359434</v>
+        <v>0.01011950819787375</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01717392204765816</v>
+        <v>0.0167554893129324</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02322465882547051</v>
+        <v>0.02473017623882806</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04445166600155284</v>
+        <v>0.04511256598519603</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0227712437136772</v>
+        <v>0.02323978347503888</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04029718794854995</v>
+        <v>0.04054891901562718</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01828332985412088</v>
+        <v>0.01844849537381034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03692709053448122</v>
+        <v>0.03709589041682602</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01874589301559342</v>
+        <v>0.02008521679114734</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03076914639114127</v>
+        <v>0.03091040495444535</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03629528245256465</v>
+        <v>0.0376425990414954</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06026313630774813</v>
+        <v>0.06129935599666907</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03758265526642154</v>
+        <v>0.03784859790624055</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03625908021906424</v>
+        <v>0.03665740943741153</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0689345422880351</v>
+        <v>0.06720036426804545</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09221262741233203</v>
+        <v>0.09045524876941304</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05863061566652936</v>
+        <v>0.05902496489988284</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06359452094956755</v>
+        <v>0.06337367154493466</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04278264270478487</v>
+        <v>0.04184114126963268</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06741366456075407</v>
+        <v>0.06634563151432485</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04112576804355386</v>
+        <v>0.04127368618652329</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04601041571562077</v>
+        <v>0.04541101417997064</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03455107043314616</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0422989266565557</v>
+        <v>0.04229892665655571</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05307382597541822</v>
@@ -1241,7 +1241,7 @@
         <v>0.05597116393994333</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06400273942687325</v>
+        <v>0.06400273942687323</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02041947538444588</v>
+        <v>0.02024497352702812</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02768328589034324</v>
+        <v>0.02740169566498452</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02877625582305393</v>
+        <v>0.02800611560867519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0364741295748503</v>
+        <v>0.03577214417271289</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04553654275950635</v>
+        <v>0.04567114973235335</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06213631620522647</v>
+        <v>0.06241102659175754</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06765496231150807</v>
+        <v>0.06771785381734344</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07740512527247215</v>
+        <v>0.07714156565435036</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03550155262700556</v>
+        <v>0.03498591877523542</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04740165628318486</v>
+        <v>0.04752594461934006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05029194442760595</v>
+        <v>0.05009290675799511</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05904556403175733</v>
+        <v>0.05897214264446236</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03197263276599301</v>
+        <v>0.03174854796768927</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04179458715158001</v>
+        <v>0.04200186498294813</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04180386603041557</v>
+        <v>0.04109403777398481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04988794287424155</v>
+        <v>0.04990695026220732</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06106296425271168</v>
+        <v>0.06145790774513196</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07954103693338667</v>
+        <v>0.0796978146755361</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08623409777239235</v>
+        <v>0.08645993323737634</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09262551865146169</v>
+        <v>0.09275671238023478</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04467125811746298</v>
+        <v>0.044314655060765</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0584788963818773</v>
+        <v>0.0584527737387138</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0624988815392444</v>
+        <v>0.06158063026806227</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06948604777424666</v>
+        <v>0.06951021915882954</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18919</v>
+        <v>20161</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26068</v>
+        <v>26314</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>39100</v>
+        <v>38624</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43160</v>
+        <v>43628</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>60381</v>
+        <v>61065</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>99825</v>
+        <v>98952</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>136442</v>
+        <v>134437</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>78978</v>
+        <v>77652</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>86631</v>
+        <v>86629</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>134877</v>
+        <v>134717</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>179186</v>
+        <v>179829</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>129607</v>
+        <v>128144</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39159</v>
+        <v>40865</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>52937</v>
+        <v>53206</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>67289</v>
+        <v>67179</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>71984</v>
+        <v>72139</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>94333</v>
+        <v>94420</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>141767</v>
+        <v>141718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>183471</v>
+        <v>183011</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>106944</v>
+        <v>106549</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>124580</v>
+        <v>124879</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>186486</v>
+        <v>186688</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>237559</v>
+        <v>238678</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>170633</v>
+        <v>170598</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13897</v>
+        <v>13253</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22731</v>
+        <v>23036</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23455</v>
+        <v>23556</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>29471</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>40956</v>
+        <v>39855</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>49269</v>
+        <v>48087</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>43558</v>
+        <v>41883</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>93735</v>
+        <v>93170</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>59981</v>
+        <v>59028</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>78058</v>
+        <v>77801</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>73624</v>
+        <v>70879</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>130084</v>
+        <v>127929</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32536</v>
+        <v>32577</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47944</v>
+        <v>49005</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45405</v>
+        <v>46682</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>54749</v>
+        <v>54002</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>70730</v>
+        <v>69421</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>80440</v>
+        <v>80955</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>74948</v>
+        <v>74584</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>125050</v>
+        <v>125182</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>95649</v>
+        <v>94382</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>119431</v>
+        <v>120713</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>111338</v>
+        <v>110988</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>170450</v>
+        <v>169830</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16328</v>
+        <v>16556</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15279</v>
+        <v>16184</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13669</v>
+        <v>14141</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17581</v>
+        <v>17412</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22349</v>
+        <v>22296</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26466</v>
+        <v>26430</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>24966</v>
+        <v>25596</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>54357</v>
+        <v>52572</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>43368</v>
+        <v>44464</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>46953</v>
+        <v>47236</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>44225</v>
+        <v>44535</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>75592</v>
+        <v>73767</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35726</v>
+        <v>34976</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36775</v>
+        <v>37127</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33138</v>
+        <v>33479</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36775</v>
+        <v>35378</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44327</v>
+        <v>44104</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50424</v>
+        <v>51408</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48666</v>
+        <v>50629</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>79893</v>
+        <v>80697</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>72577</v>
+        <v>72057</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>81218</v>
+        <v>80364</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>74472</v>
+        <v>74969</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>108132</v>
+        <v>107558</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3727</v>
+        <v>3796</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9328</v>
+        <v>9864</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4858</v>
+        <v>5128</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16761</v>
+        <v>16352</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7923</v>
+        <v>8437</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20042</v>
+        <v>20340</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11151</v>
+        <v>11380</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36588</v>
+        <v>36817</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14414</v>
+        <v>14544</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>35224</v>
+        <v>35385</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>18678</v>
+        <v>20013</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>57966</v>
+        <v>58232</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16231</v>
+        <v>16834</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30314</v>
+        <v>30835</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19043</v>
+        <v>19178</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35386</v>
+        <v>35775</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23518</v>
+        <v>22926</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41576</v>
+        <v>40783</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28711</v>
+        <v>28904</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>57742</v>
+        <v>57541</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>33728</v>
+        <v>32986</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>64305</v>
+        <v>63287</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>40978</v>
+        <v>41125</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>86679</v>
+        <v>85549</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>65951</v>
+        <v>65387</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>94221</v>
+        <v>93263</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>96898</v>
+        <v>94304</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>126959</v>
+        <v>124515</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>150952</v>
+        <v>151398</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>219447</v>
+        <v>220417</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>238605</v>
+        <v>238827</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>285942</v>
+        <v>284969</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>232350</v>
+        <v>228975</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>328742</v>
+        <v>329604</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>346716</v>
+        <v>345344</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>423645</v>
+        <v>423119</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>103266</v>
+        <v>102542</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>142250</v>
+        <v>142955</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>140765</v>
+        <v>138375</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>173649</v>
+        <v>173716</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>202422</v>
+        <v>203731</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>280915</v>
+        <v>281469</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>304130</v>
+        <v>304926</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>342168</v>
+        <v>342653</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>292364</v>
+        <v>290030</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>405566</v>
+        <v>405385</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>430872</v>
+        <v>424541</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>498555</v>
+        <v>498728</v>
       </c>
     </row>
     <row r="24">
